--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema3d</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3d</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -528,25 +528,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.02711733333333333</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H2">
-        <v>0.08135199999999999</v>
+        <v>7.318703</v>
       </c>
       <c r="I2">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252403</v>
       </c>
       <c r="J2">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>2.384732985441778</v>
+        <v>326.3604898168471</v>
       </c>
       <c r="R2">
-        <v>21.462596868976</v>
+        <v>2937.244408351624</v>
       </c>
       <c r="S2">
-        <v>0.0033278219951323</v>
+        <v>0.4225197303036761</v>
       </c>
       <c r="T2">
-        <v>0.0033278219951323</v>
+        <v>0.422519730303676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.02711733333333333</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H3">
-        <v>0.08135199999999999</v>
+        <v>7.318703</v>
       </c>
       <c r="I3">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252403</v>
       </c>
       <c r="J3">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>1.422086408264</v>
+        <v>127.935736827871</v>
       </c>
       <c r="R3">
-        <v>12.798777674376</v>
+        <v>1151.421631450839</v>
       </c>
       <c r="S3">
-        <v>0.001984478118636386</v>
+        <v>0.1656308735504408</v>
       </c>
       <c r="T3">
-        <v>0.001984478118636386</v>
+        <v>0.1656308735504408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.02711733333333333</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H4">
-        <v>0.08135199999999999</v>
+        <v>7.318703</v>
       </c>
       <c r="I4">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252403</v>
       </c>
       <c r="J4">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>0.5139592026355556</v>
+        <v>51.71320157159101</v>
       </c>
       <c r="R4">
-        <v>4.62563282372</v>
+        <v>465.418814144319</v>
       </c>
       <c r="S4">
-        <v>0.0007172143588286936</v>
+        <v>0.06695004040908985</v>
       </c>
       <c r="T4">
-        <v>0.0007172143588286934</v>
+        <v>0.06695004040908982</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.02711733333333333</v>
+        <v>2.439567666666667</v>
       </c>
       <c r="H5">
-        <v>0.08135199999999999</v>
+        <v>7.318703</v>
       </c>
       <c r="I5">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252403</v>
       </c>
       <c r="J5">
-        <v>0.008098208194787031</v>
+        <v>0.8306928434252402</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>1.482435708189333</v>
+        <v>135.6300120833435</v>
       </c>
       <c r="R5">
-        <v>13.341921373704</v>
+        <v>1220.670108750092</v>
       </c>
       <c r="S5">
-        <v>0.002068693722189652</v>
+        <v>0.1755921991620336</v>
       </c>
       <c r="T5">
-        <v>0.002068693722189652</v>
+        <v>0.1755921991620335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.439567666666667</v>
+        <v>0.47512</v>
       </c>
       <c r="H6">
-        <v>7.318703</v>
+        <v>1.42536</v>
       </c>
       <c r="I6">
-        <v>0.7285423912111864</v>
+        <v>0.1617822654238874</v>
       </c>
       <c r="J6">
-        <v>0.7285423912111865</v>
+        <v>0.1617822654238873</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>214.5387016269016</v>
+        <v>63.56060462698667</v>
       </c>
       <c r="R6">
-        <v>1930.848314642114</v>
+        <v>572.0454416428801</v>
       </c>
       <c r="S6">
-        <v>0.2993822010428847</v>
+        <v>0.08228817630468785</v>
       </c>
       <c r="T6">
-        <v>0.2993822010428847</v>
+        <v>0.08228817630468779</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.439567666666667</v>
+        <v>0.47512</v>
       </c>
       <c r="H7">
-        <v>7.318703</v>
+        <v>1.42536</v>
       </c>
       <c r="I7">
-        <v>0.7285423912111864</v>
+        <v>0.1617822654238874</v>
       </c>
       <c r="J7">
-        <v>0.7285423912111865</v>
+        <v>0.1617822654238873</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
-        <v>127.935736827871</v>
+        <v>24.91622926152</v>
       </c>
       <c r="R7">
-        <v>1151.421631450839</v>
+        <v>224.24606335368</v>
       </c>
       <c r="S7">
-        <v>0.1785304105651794</v>
+        <v>0.03225757650281155</v>
       </c>
       <c r="T7">
-        <v>0.1785304105651794</v>
+        <v>0.03225757650281153</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.439567666666667</v>
+        <v>0.47512</v>
       </c>
       <c r="H8">
-        <v>7.318703</v>
+        <v>1.42536</v>
       </c>
       <c r="I8">
-        <v>0.7285423912111864</v>
+        <v>0.1617822654238874</v>
       </c>
       <c r="J8">
-        <v>0.7285423912111865</v>
+        <v>0.1617822654238873</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>46.23752038310612</v>
+        <v>10.07144694792</v>
       </c>
       <c r="R8">
-        <v>416.1376834479551</v>
+        <v>90.64302253128</v>
       </c>
       <c r="S8">
-        <v>0.06452304650903035</v>
+        <v>0.01303890998138609</v>
       </c>
       <c r="T8">
-        <v>0.06452304650903035</v>
+        <v>0.01303890998138608</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.439567666666667</v>
+        <v>0.47512</v>
       </c>
       <c r="H9">
-        <v>7.318703</v>
+        <v>1.42536</v>
       </c>
       <c r="I9">
-        <v>0.7285423912111864</v>
+        <v>0.1617822654238874</v>
       </c>
       <c r="J9">
-        <v>0.7285423912111865</v>
+        <v>0.1617822654238873</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>133.3649653952257</v>
+        <v>26.41473414389333</v>
       </c>
       <c r="R9">
-        <v>1200.284688557031</v>
+        <v>237.73260729504</v>
       </c>
       <c r="S9">
-        <v>0.186106733094092</v>
+        <v>0.03419760263500188</v>
       </c>
       <c r="T9">
-        <v>0.186106733094092</v>
+        <v>0.03419760263500186</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.8818746666666667</v>
+        <v>0.022099</v>
       </c>
       <c r="H10">
-        <v>2.645624</v>
+        <v>0.06629699999999999</v>
       </c>
       <c r="I10">
-        <v>0.2633594005940266</v>
+        <v>0.007524891150872382</v>
       </c>
       <c r="J10">
-        <v>0.2633594005940266</v>
+        <v>0.00752489115087238</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>77.55318639832356</v>
+        <v>2.956360080930667</v>
       </c>
       <c r="R10">
-        <v>697.9786775849121</v>
+        <v>26.607240728376</v>
       </c>
       <c r="S10">
-        <v>0.1082231013134268</v>
+        <v>0.003827425509676075</v>
       </c>
       <c r="T10">
-        <v>0.1082231013134268</v>
+        <v>0.003827425509676073</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,25 +1086,25 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.8818746666666667</v>
+        <v>0.022099</v>
       </c>
       <c r="H11">
-        <v>2.645624</v>
+        <v>0.06629699999999999</v>
       </c>
       <c r="I11">
-        <v>0.2633594005940266</v>
+        <v>0.007524891150872382</v>
       </c>
       <c r="J11">
-        <v>0.2633594005940266</v>
+        <v>0.00752489115087238</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>46.24724569496799</v>
+        <v>1.158915117129</v>
       </c>
       <c r="R11">
-        <v>416.225211254712</v>
+        <v>10.430236054161</v>
       </c>
       <c r="S11">
-        <v>0.06453661788449296</v>
+        <v>0.001500379237109851</v>
       </c>
       <c r="T11">
-        <v>0.06453661788449296</v>
+        <v>0.00150037923710985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,25 +1148,25 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.8818746666666667</v>
+        <v>0.022099</v>
       </c>
       <c r="H12">
-        <v>2.645624</v>
+        <v>0.06629699999999999</v>
       </c>
       <c r="I12">
-        <v>0.2633594005940266</v>
+        <v>0.007524891150872382</v>
       </c>
       <c r="J12">
-        <v>0.2633594005940266</v>
+        <v>0.00752489115087238</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>16.71431312707112</v>
+        <v>0.468447773409</v>
       </c>
       <c r="R12">
-        <v>150.42881814364</v>
+        <v>4.216029960681</v>
       </c>
       <c r="S12">
-        <v>0.02332431311906043</v>
+        <v>0.0006064717790845495</v>
       </c>
       <c r="T12">
-        <v>0.02332431311906043</v>
+        <v>0.0006064717790845492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,25 +1210,25 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.8818746666666667</v>
+        <v>0.022099</v>
       </c>
       <c r="H13">
-        <v>2.645624</v>
+        <v>0.06629699999999999</v>
       </c>
       <c r="I13">
-        <v>0.2633594005940266</v>
+        <v>0.007524891150872382</v>
       </c>
       <c r="J13">
-        <v>0.2633594005940266</v>
+        <v>0.00752489115087238</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>48.20984718313867</v>
+        <v>1.228614265545333</v>
       </c>
       <c r="R13">
-        <v>433.888624648248</v>
+        <v>11.057528389908</v>
       </c>
       <c r="S13">
-        <v>0.06727536827704637</v>
+        <v>0.001590614625001908</v>
       </c>
       <c r="T13">
-        <v>0.06727536827704637</v>
+        <v>0.001590614625001907</v>
       </c>
     </row>
   </sheetData>
